--- a/src/main/resources/upload/韶关公积金.xlsx
+++ b/src/main/resources/upload/韶关公积金.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13920"/>
+    <workbookView windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="A0001" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+  <si>
+    <t>服务码</t>
+  </si>
+  <si>
+    <t>A00001</t>
+  </si>
+  <si>
+    <t>服务</t>
+  </si>
+  <si>
+    <t>80132000001（中文啦）</t>
+  </si>
+  <si>
+    <t>服务场景码</t>
+  </si>
+  <si>
+    <t>21(随便啦)</t>
+  </si>
+  <si>
+    <t>跳过这行</t>
+  </si>
   <si>
     <t>输入</t>
   </si>
@@ -43,15 +64,6 @@
     <t>SYS_HEAD</t>
   </si>
   <si>
-    <t>abc1</t>
-  </si>
-  <si>
-    <t>metadata1</t>
-  </si>
-  <si>
-    <t>string(15)</t>
-  </si>
-  <si>
     <t>abc2</t>
   </si>
   <si>
@@ -76,22 +88,43 @@
     <t>APP_HEAD</t>
   </si>
   <si>
-    <t>abc4</t>
-  </si>
-  <si>
-    <t>metadata4</t>
+    <t>abc5</t>
+  </si>
+  <si>
+    <t>metadata5</t>
+  </si>
+  <si>
+    <t>string(19)</t>
+  </si>
+  <si>
+    <t>输出</t>
+  </si>
+  <si>
+    <t>ooa</t>
+  </si>
+  <si>
+    <t>om</t>
+  </si>
+  <si>
+    <t>ooa2</t>
+  </si>
+  <si>
+    <t>om2</t>
+  </si>
+  <si>
+    <t>ooa4</t>
+  </si>
+  <si>
+    <t>om4</t>
   </si>
   <si>
     <t>string(18)</t>
   </si>
   <si>
-    <t>abc5</t>
-  </si>
-  <si>
-    <t>metadata5</t>
-  </si>
-  <si>
-    <t>string(19)</t>
+    <t>ooa5</t>
+  </si>
+  <si>
+    <t>om5</t>
   </si>
   <si>
     <t>array</t>
@@ -132,9 +165,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -154,9 +187,55 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,18 +248,17 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,60 +270,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,18 +293,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -286,23 +301,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,67 +344,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,25 +500,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,96 +542,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -526,26 +571,39 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,8 +611,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,6 +637,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,172 +699,192 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1130,18 +1234,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
+    <col min="1" max="1" width="10.4038461538462" customWidth="1"/>
     <col min="2" max="2" width="12.9807692307692" customWidth="1"/>
     <col min="5" max="5" width="11.5384615384615" customWidth="1"/>
     <col min="6" max="6" width="2.55769230769231" customWidth="1"/>
     <col min="7" max="7" width="15.3846153846154" customWidth="1"/>
+    <col min="8" max="8" width="14.2596153846154" customWidth="1"/>
     <col min="10" max="10" width="14.9038461538462" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1149,322 +1255,461 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>4</v>
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>4</v>
+      <c r="K6" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5">
+        <v>18</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2">
-        <v>20</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2" t="s">
-        <v>4</v>
+      <c r="K7" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5">
+        <v>20</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>27</v>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="2"/>
+      <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="2"/>
+      <c r="A10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5">
+        <v>15</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5">
+        <v>17</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5">
+        <v>19</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="5">
+        <v>20</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>36</v>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="5">
+        <v>2</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+  <mergeCells count="8">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="F1:F17"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
